--- a/7RSuperMarket/src/main/resources/Test_Data.xlsx
+++ b/7RSuperMarket/src/main/resources/Test_Data.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neeju Devaraju\git\AutomationTest\7RSuperMarket\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Admin_page_Test" sheetId="2" r:id="rId2"/>
+    <sheet name="News" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>Keerthana palaeri</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
+    <t>Obsqura offers job-oriented training in manual and automation testing with 100% placement assurance. Hands-on Learning. Sessions are handled by Industry experts. Start your learning today! As one of the leading Software Testing Training Institutes in Kerala, we provide both manual and automation testing courses</t>
   </si>
 </sst>
 </file>
@@ -108,9 +111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -395,7 +401,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -503,4 +509,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RSuperMarket/src/main/resources/Test_Data.xlsx
+++ b/7RSuperMarket/src/main/resources/Test_Data.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6144" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18744" windowHeight="6144" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Admin_page_Test" sheetId="2" r:id="rId2"/>
     <sheet name="News" sheetId="3" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H14"/>
+  <oleSize ref="A1:S19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -67,6 +68,9 @@
   </si>
   <si>
     <t>Obsqura offers job-oriented training in manual and automation testing with 100% placement assurance. Hands-on Learning. Sessions are handled by Industry experts. Start your learning today! As one of the leading Software Testing Training Institutes in Kerala, we provide both manual and automation testing courses</t>
+  </si>
+  <si>
+    <t>Obsqura</t>
   </si>
 </sst>
 </file>
@@ -515,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -537,4 +541,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RSuperMarket/src/main/resources/Test_Data.xlsx
+++ b/7RSuperMarket/src/main/resources/Test_Data.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18744" windowHeight="6144" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18744" windowHeight="9156" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Admin_page_Test" sheetId="2" r:id="rId2"/>
     <sheet name="News" sheetId="3" r:id="rId3"/>
     <sheet name="Search" sheetId="4" r:id="rId4"/>
+    <sheet name="Admin_Search" sheetId="5" r:id="rId5"/>
+    <sheet name="Manage_Category" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S19"/>
+  <oleSize ref="A1:S30"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -71,13 +73,25 @@
   </si>
   <si>
     <t>Obsqura</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Ring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +106,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,12 +134,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -561,4 +581,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RSuperMarket/src/main/resources/Test_Data.xlsx
+++ b/7RSuperMarket/src/main/resources/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18744" windowHeight="9156" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13668" windowHeight="6828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Manage_Category" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S30"/>
+  <oleSize ref="A1:F21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Ring</t>
+  </si>
+  <si>
+    <t>test@123</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,9 +530,18 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/7RSuperMarket/src/main/resources/Test_Data.xlsx
+++ b/7RSuperMarket/src/main/resources/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13668" windowHeight="6828" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19212" windowHeight="6828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,6 +535,14 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
